--- a/leave_info.xlsx
+++ b/leave_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,101 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2024-04-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chờ xác nhận</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jkyhkjh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-04-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Đã phê duyệt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hehe</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-04-17 07:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-17 07:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chờ xác nhận</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hehe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2024-05-22 09:22:27</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>2024-05-22 09:22:28</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Chờ xác nhận</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
